--- a/ft_model/customer_primitives/自动标签机器人指标体系.xlsx
+++ b/ft_model/customer_primitives/自动标签机器人指标体系.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\S0000813\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\19_s1\Django_FeatureTools\ft_model\customer_primitives\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579DFA5A-35E4-4790-BAA2-FFCF8127720A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>原始指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,13 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户的最近三个月平均资产、产品最近三天平均购买人次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>客户的最近三个月资产的中位数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +85,6 @@
     <t>NMostCommon</t>
   </si>
   <si>
-    <t>客户购买过的产品数、产品被购买过的人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户资产最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户浏览最频繁的三只股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AvgTimeBetween</t>
   </si>
   <si>
@@ -114,23 +100,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均登录时长/平均购买间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类别变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户的最近三个月平均资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、产品最近三天平均购买人次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对产品做count?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在主Key都是对客户，如何生成对产品的特征？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户购买过的产品数、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品被购买过的人数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最频繁的三只股票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改taget_entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max, max2nd, max3rd(count)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定时间段划分？一周？一个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df[t1]-df[t2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均登录时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/平均购买间隔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +280,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,13 +336,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +399,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,24 +713,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,17 +765,24 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -554,88 +791,118 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -643,14 +910,23 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -658,7 +934,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -666,7 +942,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -674,7 +950,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -682,23 +958,40 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -706,7 +999,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -714,7 +1007,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -722,7 +1015,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -730,7 +1023,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -738,7 +1031,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -746,7 +1039,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -754,7 +1047,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -762,7 +1055,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -770,7 +1063,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -778,7 +1071,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -786,7 +1079,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -794,7 +1087,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -802,7 +1095,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -811,8 +1104,19 @@
       <c r="F29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ft_model/customer_primitives/自动标签机器人指标体系.xlsx
+++ b/ft_model/customer_primitives/自动标签机器人指标体系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\19_s1\Django_FeatureTools\ft_model\customer_primitives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579DFA5A-35E4-4790-BAA2-FFCF8127720A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF7AEE-D865-4A8C-B0CC-0D996EEC8239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>原始指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,12 +250,59 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、产品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +351,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,6 +458,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,27 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +771,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -769,19 +823,19 @@
         <v>21</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -794,12 +848,12 @@
         <v>10</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -818,12 +872,12 @@
         <v>27</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -835,19 +889,19 @@
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>3</v>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -859,19 +913,19 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>3</v>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -890,12 +944,12 @@
         <v>30</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -916,13 +970,13 @@
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="14" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
